--- a/Assets/ExcelConfigs/Example.xlsx
+++ b/Assets/ExcelConfigs/Example.xlsx
@@ -165,16 +165,13 @@
     <t>名字1</t>
   </si>
   <si>
-    <t>flase</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
     <t>5.0,-6</t>
   </si>
   <si>
-    <t>名字2</t>
+    <t>"名字2"</t>
   </si>
   <si>
     <t>1,2,3</t>
@@ -183,7 +180,10 @@
     <t>-2.0,2</t>
   </si>
   <si>
-    <t>文本,冒号:"引号文本","引号文本2,有逗号"</t>
+    <t>文本,冒号:""引号文本"","引号文本2,有逗号"</t>
+  </si>
+  <si>
+    <t>1003</t>
   </si>
 </sst>
 </file>
@@ -823,14 +823,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,125 +1178,132 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="11" style="1"/>
+    <col min="1" max="3" width="11" style="1"/>
+    <col min="4" max="4" width="11" style="2"/>
+    <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1001</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1002</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Assets/ExcelConfigs/Example.xlsx
+++ b/Assets/ExcelConfigs/Example.xlsx
@@ -823,14 +823,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,6 +844,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1181,124 +1190,126 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="11" style="1"/>
     <col min="4" max="4" width="11" style="2"/>
-    <col min="5" max="16384" width="11" style="1"/>
+    <col min="5" max="6" width="11" style="1"/>
+    <col min="7" max="7" width="11" style="3"/>
+    <col min="8" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1001</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="b">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>1002</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>100</v>
       </c>
-      <c r="D5" s="4" t="b">
+      <c r="D5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
